--- a/exampleXML.xlsx
+++ b/exampleXML.xlsx
@@ -36,34 +36,16 @@
   <numFmts count="1">
     <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="1">
     <fill>
       <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -75,44 +57,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" applyProtection="true" applyAlignment="true" applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="0">
-      <alignment shrinkToFit="false" indent="0" wrapText="false" textRotation="0" vertical="bottom" horizontal="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="1"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="1"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="2"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="2"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="0" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0"/>
-    <xf numFmtId="43" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="1"/>
-    <xf numFmtId="41" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="1"/>
-    <xf numFmtId="44" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="1"/>
-    <xf numFmtId="42" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="1"/>
-    <xf numFmtId="9" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="1"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" applyProtection="0" applyAlignment="0" applyBorder="0" applyFont="0" borderId="0" fillId="0" fontId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" applyProtection="false" applyAlignment="false" applyBorder="false" borderId="0" fillId="0" fontId="0" xfId="0">
-      <alignment shrinkToFit="false" indent="0" wrapText="false" textRotation="0" vertical="bottom" horizontal="general"/>
-      <alignment hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <xf xfId="0" customBuiltin="false" builtinId="0" name="Normal"/>
-    <xf xfId="15" customBuiltin="false" builtinId="3" name="Comma"/>
-    <xf xfId="16" customBuiltin="false" builtinId="6" name="Comma [0]"/>
-    <xf xfId="17" customBuiltin="false" builtinId="4" name="Currency"/>
-    <xf xfId="18" customBuiltin="false" builtinId="7" name="Currency [0]"/>
-    <xf xfId="19" customBuiltin="false" builtinId="5" name="Percent"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" customBuiltin="false" builtinId="0" name="Normal"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -125,8 +77,10 @@
       <selection sqref="E1" activeCellId="0" activeCell="E1" pane="topLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr outlineLevelCol="0" outlineLevelRow="0" zeroHeight="fale"/>
-  <cols width="11.52" style="0" min="1" max="1025" outlineLevel="0" hidden="false" customWidth="false" collapsed="false"/>
+  <sheetFormatPr outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false" defaultRowHeight="12.8"/>
+  <cols>
+    <col width="11.52" style="0" min="1" max="1025" outlineLevel="0" hidden="false" customWidth="false" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1" outlineLevel="0" hidden="false" customHeight="false" ht="12.8" customFormat="false">
       <c r="A1" t="s" s="0">
